--- a/data/trans_dic/IMC_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>59,32; 68,45</t>
+          <t>59,14; 68,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60,18; 69,84</t>
+          <t>60,47; 70,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,04; 63,79</t>
+          <t>54,12; 63,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,86; 62,92</t>
+          <t>54,12; 62,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,19; 34,38</t>
+          <t>24,04; 34,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,4; 37,59</t>
+          <t>26,7; 38,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,92; 46,1</t>
+          <t>35,6; 45,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,47; 38,5</t>
+          <t>30,98; 38,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,53; 53,61</t>
+          <t>46,29; 53,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>47,44; 55,4</t>
+          <t>47,77; 55,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46,83; 54,42</t>
+          <t>46,93; 54,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>44,34; 50,55</t>
+          <t>44,21; 50,15</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>54,3; 65,1</t>
+          <t>54,4; 64,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,47; 73,54</t>
+          <t>63,14; 73,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,02; 64,68</t>
+          <t>54,6; 64,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,36; 64,81</t>
+          <t>55,32; 64,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,8; 39,78</t>
+          <t>29,79; 39,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,36; 48,42</t>
+          <t>35,48; 47,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,42; 46,27</t>
+          <t>35,21; 45,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,48; 50,2</t>
+          <t>41,43; 50,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,55; 50,82</t>
+          <t>43,42; 51,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,58; 60,93</t>
+          <t>52,75; 60,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46,3; 54,37</t>
+          <t>45,85; 53,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>50,52; 57,13</t>
+          <t>50,41; 57,5</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,51; 70,8</t>
+          <t>62,24; 70,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68,86; 76,6</t>
+          <t>68,87; 76,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61,37; 69,6</t>
+          <t>61,26; 70,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>67,68; 93,45</t>
+          <t>68,28; 93,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,82; 52,81</t>
+          <t>37,25; 52,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,46; 67,42</t>
+          <t>54,61; 67,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,73; 66,42</t>
+          <t>50,8; 67,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,61; 52,88</t>
+          <t>39,8; 52,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>57,69; 65,2</t>
+          <t>58,03; 65,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>66,03; 72,48</t>
+          <t>65,65; 72,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>60,33; 67,74</t>
+          <t>59,88; 67,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>61,2; 89,71</t>
+          <t>61,64; 87,85</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,64; 67,26</t>
+          <t>61,19; 66,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>65,24; 71,1</t>
+          <t>65,34; 71,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,81; 69,69</t>
+          <t>63,64; 69,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>64,08; 71,44</t>
+          <t>63,53; 70,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,77; 48,11</t>
+          <t>40,24; 47,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,9; 54,17</t>
+          <t>46,59; 54,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,11; 50,23</t>
+          <t>42,91; 50,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,39; 81,41</t>
+          <t>50,41; 80,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,74; 59,29</t>
+          <t>54,84; 59,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58,77; 63,5</t>
+          <t>58,94; 63,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>56,32; 60,5</t>
+          <t>56,05; 60,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>59,66; 76,35</t>
+          <t>59,72; 75,28</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,05; 59,76</t>
+          <t>48,79; 59,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60,76; 69,4</t>
+          <t>61,03; 69,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>59,84; 67,49</t>
+          <t>59,45; 67,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59,57; 69,66</t>
+          <t>59,81; 69,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>51,86; 60,74</t>
+          <t>52,33; 60,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,87; 67,84</t>
+          <t>59,66; 67,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>57,74; 65,08</t>
+          <t>57,41; 65,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>61,73; 75,91</t>
+          <t>61,96; 76,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>52,08; 58,92</t>
+          <t>51,88; 59,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>61,47; 66,92</t>
+          <t>61,41; 66,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>59,99; 65,68</t>
+          <t>59,98; 65,48</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>62,67; 72,3</t>
+          <t>62,73; 71,7</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,88; 28,29</t>
+          <t>18,83; 28,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,94; 38,51</t>
+          <t>26,83; 38,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,32; 31,8</t>
+          <t>21,28; 31,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,16; 47,72</t>
+          <t>24,08; 45,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,52; 56,33</t>
+          <t>50,55; 56,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>56,46; 62,5</t>
+          <t>56,55; 62,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,9; 60,0</t>
+          <t>54,07; 60,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>51,85; 59,2</t>
+          <t>51,79; 59,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,16; 50,15</t>
+          <t>45,15; 50,13</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>51,46; 56,84</t>
+          <t>51,37; 56,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>47,43; 53,37</t>
+          <t>47,48; 53,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>46,43; 54,05</t>
+          <t>46,34; 54,01</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>57,61; 61,0</t>
+          <t>57,51; 61,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63,69; 67,09</t>
+          <t>63,87; 67,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59,07; 62,45</t>
+          <t>58,92; 62,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>61,62; 73,18</t>
+          <t>61,67; 73,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,66; 49,19</t>
+          <t>45,62; 48,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,63; 56,17</t>
+          <t>52,5; 55,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,48; 53,94</t>
+          <t>50,46; 53,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>51,67; 63,38</t>
+          <t>51,94; 64,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>52,02; 54,53</t>
+          <t>52,06; 54,42</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>58,56; 60,95</t>
+          <t>58,51; 61,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>55,18; 57,72</t>
+          <t>55,12; 57,62</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>57,36; 65,77</t>
+          <t>57,33; 65,93</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sobrepeso u obesidad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>298937</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>281534</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>249696</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>290916</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>87485</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>99555</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>135764</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>150044</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>386423</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>381090</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>385460</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>440959</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>277654; 321912</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>259958; 301351</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>229258; 270950</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>269039; 312298</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>73036; 105283</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>83142; 118949</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>119542; 154342</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>134934; 168220</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>357981; 410365</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>354093; 410906</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>356374; 413490</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>412306; 467732</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>216390</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>276909</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>218199</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>269081</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>127698</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>137501</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>146774</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>172373</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>344087</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>414410</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>364973</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>441454</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>197010; 234402</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>255121; 296000</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>200133; 237698</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>246988; 288371</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>109898; 147096</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>115881; 156115</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>127393; 165165</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>155335; 187815</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>317424; 376353</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>385403; 442053</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>333965; 391768</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>414039; 472281</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>360889</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>449850</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>330490</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>532058</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>73747</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>148563</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>91243</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>74229</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>434635</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>598413</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>421733</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>606286</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>337599; 380776</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>426459; 472037</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>308121; 352359</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>449992; 615950</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>61343; 86796</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>133548; 164204</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>79226; 104523</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>64382; 84631</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>410288; 463201</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>567073; 622786</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>394574; 445225</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>505962; 721093</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1099</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1445</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>788450</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>779381</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>738425</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>686506</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>315495</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>380531</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>366742</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>592954</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1103945</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1159912</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1105167</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1279461</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>750483; 818639</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>746615; 813681</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>704738; 770968</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>645474; 719983</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>285411; 340445</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>350788; 408348</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>336262; 395531</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>484426; 770786</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1061676; 1144018</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1117231; 1204738</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1059853; 1146881</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1180695; 1488256</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1144</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>187669</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>322314</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>374928</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>302895</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>314660</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>452765</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>423326</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>511745</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>502329</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>775080</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>798255</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>814639</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>166988; 204880</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>301921; 343533</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>349780; 398216</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>278458; 324422</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>292235; 337811</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>424947; 479751</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>394836; 448635</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>477082; 585799</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>467315; 532638</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>741283; 808067</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>765311; 835614</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>775148; 885884</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>69139</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>86695</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>72811</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>81364</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>655958</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>627174</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>572463</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>397017</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>725097</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>713869</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>645274</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>478381</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>55815; 83655</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>71360; 102619</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>59062; 88028</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>56798; 107413</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>620039; 688787</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>595220; 657242</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>543128; 607787</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>371721; 423485</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>687698; 763522</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>677380; 749278</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>608728; 682439</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>441863; 515072</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2046</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1894</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2817</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3440</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>3758</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3508</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>4951</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1921474</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2196684</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1984550</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2162819</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1575042</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1846089</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1736312</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1898362</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3496516</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>4042774</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3720862</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>4061181</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1862922; 1977920</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2143837; 2255582</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1924586; 2038297</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2047609; 2452833</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1520018; 1631708</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1785081; 1902975</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1680154; 1794296</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1776854; 2211758</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3420708; 3575929</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3953076; 4126117</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3635846; 3800466</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3864901; 4444648</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/IMC_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
